--- a/outputs/metadata.xlsx
+++ b/outputs/metadata.xlsx
@@ -786,7 +786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -807,11 +807,18 @@
     <col width="21" customWidth="1" min="10" max="10"/>
     <col width="13" customWidth="1" min="11" max="11"/>
     <col width="17" customWidth="1" min="12" max="12"/>
-    <col width="50" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
-    <col width="19" customWidth="1" min="15" max="15"/>
-    <col width="28" customWidth="1" min="16" max="16"/>
-    <col width="28" customWidth="1" min="17" max="17"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="16" customWidth="1" min="14" max="14"/>
+    <col width="18" customWidth="1" min="15" max="15"/>
+    <col width="18" customWidth="1" min="16" max="16"/>
+    <col width="11" customWidth="1" min="17" max="17"/>
+    <col width="18" customWidth="1" min="18" max="18"/>
+    <col width="13" customWidth="1" min="19" max="19"/>
+    <col width="50" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="19" customWidth="1" min="22" max="22"/>
+    <col width="28" customWidth="1" min="23" max="23"/>
+    <col width="28" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -877,25 +884,60 @@
       </c>
       <c r="M1" s="3" t="inlineStr">
         <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>business_model</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>primary_products</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>typical_delivery</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>tax_notes</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
+          <t>confidence_score</t>
+        </is>
+      </c>
+      <c r="S1" s="3" t="inlineStr">
+        <is>
+          <t>data_source</t>
+        </is>
+      </c>
+      <c r="T1" s="3" t="inlineStr">
+        <is>
           <t>source_file</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>total_chunks</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>processing_status</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>created_at</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
@@ -947,25 +989,33 @@
           <t>ETA 9003.2010</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>knowledge_base/states/washington/legal_documents/WAC 458-20-15503.pdf</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="U2" t="n">
         <v>34</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>2025-11-08T20:57:49.023084</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>2025-11-08T14:40:53.864232</t>
         </is>
@@ -1013,25 +1063,33 @@
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>knowledge_base/states/washington/legal_documents/20_Retail_Sales_and_Use_Tax.pdf</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="U3" t="n">
         <v>44</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>2025-11-08T20:58:21.306438</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>2025-11-08T14:40:54.214597</t>
         </is>
